--- a/DE_XUAT_THANH_TOAN_TEMPLATE.xlsx
+++ b/DE_XUAT_THANH_TOAN_TEMPLATE.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>NGÀY THÁNG</v>
       </c>
       <c r="E1" t="str">
-        <v>MÃ SỐ ĐỀ XUẤT</v>
+        <v>MÃ ĐỀ XUẤT</v>
       </c>
       <c r="F1" t="str">
         <v>NỘI DUNG</v>
@@ -431,31 +431,13 @@
         <v>DỰ TÍNH NGÂN SÁCH</v>
       </c>
       <c r="J1" t="str">
-        <v>NGÂN SÁCH</v>
+        <v>TRẠNG THÁI</v>
       </c>
       <c r="K1" t="str">
-        <v>SỐ TIỀN ĐƯỢC DUYỆT</v>
+        <v>MÃ CHUYỂN KHOẢN</v>
       </c>
       <c r="L1" t="str">
-        <v>MÃ CHUYỂN KHOẢN</v>
-      </c>
-      <c r="M1" t="str">
-        <v>NGÀY THANH TOÁN</v>
-      </c>
-      <c r="N1" t="str">
-        <v>GHI CHÚ</v>
-      </c>
-      <c r="O1" t="str">
-        <v>TRẠNG THÁI</v>
-      </c>
-      <c r="P1" t="str">
-        <v>NGƯỜI DUYỆT</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>NGÀY DUYỆT</v>
-      </c>
-      <c r="R1" t="str">
-        <v>HOÀN THÀNH</v>
+        <v>NGÀY CHUYỂN KHOẢN</v>
       </c>
     </row>
     <row r="2">
@@ -486,32 +468,14 @@
       <c r="I2">
         <v>15000000</v>
       </c>
-      <c r="J2">
-        <v>20000000</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="J2" t="str">
+        <v>Đang xử lý</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
       <c r="L2" t="str">
         <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v>Đang xử lý</v>
-      </c>
-      <c r="P2" t="str">
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <v>No</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +506,19 @@
       <c r="I3">
         <v>5000000</v>
       </c>
-      <c r="J3">
-        <v>10000000</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="J3" t="str">
+        <v>Đã xong</v>
+      </c>
+      <c r="K3" t="str">
+        <v>CK12345</v>
       </c>
       <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v>Đã xong</v>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <v>Yes</v>
+        <v>02/05/2025</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DE_XUAT_THANH_TOAN_TEMPLATE.xlsx
+++ b/DE_XUAT_THANH_TOAN_TEMPLATE.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,15 +430,6 @@
       <c r="I1" t="str">
         <v>DỰ TÍNH NGÂN SÁCH</v>
       </c>
-      <c r="J1" t="str">
-        <v>TRẠNG THÁI</v>
-      </c>
-      <c r="K1" t="str">
-        <v>MÃ CHUYỂN KHOẢN</v>
-      </c>
-      <c r="L1" t="str">
-        <v>NGÀY CHUYỂN KHOẢN</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -468,15 +459,6 @@
       <c r="I2">
         <v>15000000</v>
       </c>
-      <c r="J2" t="str">
-        <v>Đang xử lý</v>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -506,19 +488,10 @@
       <c r="I3">
         <v>5000000</v>
       </c>
-      <c r="J3" t="str">
-        <v>Đã xong</v>
-      </c>
-      <c r="K3" t="str">
-        <v>CK12345</v>
-      </c>
-      <c r="L3" t="str">
-        <v>02/05/2025</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>